--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAggregated C&A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAggregated C&A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
@@ -37,31 +37,31 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.707***</t>
-  </si>
-  <si>
-    <t>-1.871***</t>
-  </si>
-  <si>
-    <t>0.174***</t>
+    <t>-0.711***</t>
+  </si>
+  <si>
+    <t>-1.824***</t>
+  </si>
+  <si>
+    <t>0.193***</t>
   </si>
   <si>
     <t>0.046**</t>
   </si>
   <si>
-    <t>-0.024</t>
-  </si>
-  <si>
-    <t>-0.024***</t>
-  </si>
-  <si>
-    <t>0.33***</t>
-  </si>
-  <si>
-    <t>7.831***</t>
-  </si>
-  <si>
-    <t>-0.265***</t>
+    <t>-0.031</t>
+  </si>
+  <si>
+    <t>-0.027***</t>
+  </si>
+  <si>
+    <t>0.283***</t>
+  </si>
+  <si>
+    <t>6.892***</t>
+  </si>
+  <si>
+    <t>-0.26***</t>
   </si>
 </sst>
 </file>
